--- a/medicine/Sexualité et sexologie/Prostitution_en_Nouvelle-Zélande/Prostitution_en_Nouvelle-Zélande.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_en_Nouvelle-Zélande/Prostitution_en_Nouvelle-Zélande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_en_Nouvelle-Z%C3%A9lande</t>
+          <t>Prostitution_en_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostitution en Nouvelle-Zélande est l'activité de prostitution exercée en Nouvelle-Zélande. Elle est légale dans ce pays.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_en_Nouvelle-Z%C3%A9lande</t>
+          <t>Prostitution_en_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prostitution Reform Act 2003
-Le Prostitution Reform Act 2003 est une loi du Parlement qui a dépénalisé la prostitution en Nouvelle-Zélande[1],[2]. La loi a également donné de nouveaux droits aux travailleurs du sexe[3]. Il a attiré l'attention internationale, bien que son accueil ait été mitigé[4]. La loi a abrogé la loi de 1978 sur les salons de massage et les règlements connexes[5].
+          <t>Prostitution Reform Act 2003</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prostitution Reform Act 2003 est une loi du Parlement qui a dépénalisé la prostitution en Nouvelle-Zélande,. La loi a également donné de nouveaux droits aux travailleurs du sexe. Il a attiré l'attention internationale, bien que son accueil ait été mitigé. La loi a abrogé la loi de 1978 sur les salons de massage et les règlements connexes.
 </t>
         </is>
       </c>
